--- a/target/classes/resources/RMSAllEnvTestData.xlsx
+++ b/target/classes/resources/RMSAllEnvTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagababu.parepalli\eclipse-workspace\RmsCustomerPortal\src\main\java\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nagababu.parepalli\eclipse-workspace\RMS\src\main\java\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABFDA1A-5831-4D55-8D8C-7E38B745660E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A9D346-D8AD-4F32-A504-C763C1CB581D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1F45140C-9D0A-43A7-8AA8-1FFD7BE961DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="29">
   <si>
     <t>NeedBydate</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>11/22/2021</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A2A6559-6C39-4A88-B242-BC784C7EBF81}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +589,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -619,7 +622,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -647,6 +650,198 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +855,7 @@
   <dimension ref="F16:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:O17"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
